--- a/SchedulingData/static8/pso/scheduling1_3.xlsx
+++ b/SchedulingData/static8/pso/scheduling1_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,154 +462,154 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>75.7</v>
+        <v>74.7</v>
       </c>
       <c r="E2" t="n">
-        <v>25.58</v>
+        <v>27.16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>57</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>26.48</v>
+        <v>25.02</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>60.92</v>
+        <v>137.8</v>
       </c>
       <c r="E4" t="n">
-        <v>26.568</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>137.8</v>
       </c>
       <c r="D5" t="n">
-        <v>82.7</v>
+        <v>209.04</v>
       </c>
       <c r="E5" t="n">
-        <v>24.4</v>
+        <v>18.476</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>57.6</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>25.92</v>
+        <v>26.36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>209.04</v>
       </c>
       <c r="D7" t="n">
-        <v>83.09999999999999</v>
+        <v>286.14</v>
       </c>
       <c r="E7" t="n">
-        <v>26.36</v>
+        <v>14.396</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>75.7</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>131.24</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>23.116</v>
+        <v>26.44</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>60.92</v>
+        <v>74.7</v>
       </c>
       <c r="D9" t="n">
-        <v>152.32</v>
+        <v>128.86</v>
       </c>
       <c r="E9" t="n">
-        <v>21.048</v>
+        <v>23.884</v>
       </c>
     </row>
     <row r="10">
@@ -618,150 +618,150 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>57</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>116.32</v>
+        <v>123.72</v>
       </c>
       <c r="E10" t="n">
-        <v>23.168</v>
+        <v>22.928</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>116.32</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>175.18</v>
+        <v>57.6</v>
       </c>
       <c r="E11" t="n">
-        <v>19.892</v>
+        <v>25.92</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>152.32</v>
+        <v>128.86</v>
       </c>
       <c r="D12" t="n">
-        <v>226.92</v>
+        <v>175.74</v>
       </c>
       <c r="E12" t="n">
-        <v>15.708</v>
+        <v>19.836</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>57.6</v>
+        <v>175.74</v>
       </c>
       <c r="D13" t="n">
-        <v>113.16</v>
+        <v>243.32</v>
       </c>
       <c r="E13" t="n">
-        <v>21.984</v>
+        <v>15.188</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>113.16</v>
+        <v>243.32</v>
       </c>
       <c r="D14" t="n">
-        <v>165.08</v>
+        <v>297.48</v>
       </c>
       <c r="E14" t="n">
-        <v>18.432</v>
+        <v>11.392</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>165.08</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>226.42</v>
+        <v>58.8</v>
       </c>
       <c r="E15" t="n">
-        <v>14.428</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>175.18</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>246.08</v>
+        <v>136.52</v>
       </c>
       <c r="E16" t="n">
-        <v>14.912</v>
+        <v>23.128</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>131.24</v>
+        <v>58.8</v>
       </c>
       <c r="D17" t="n">
-        <v>177.16</v>
+        <v>125.64</v>
       </c>
       <c r="E17" t="n">
-        <v>19.164</v>
+        <v>20.756</v>
       </c>
     </row>
     <row r="18">
@@ -770,55 +770,55 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>246.08</v>
+        <v>123.72</v>
       </c>
       <c r="D18" t="n">
-        <v>320.26</v>
+        <v>185.82</v>
       </c>
       <c r="E18" t="n">
-        <v>11.104</v>
+        <v>19.328</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>320.26</v>
+        <v>125.64</v>
       </c>
       <c r="D19" t="n">
-        <v>363.5</v>
+        <v>187.24</v>
       </c>
       <c r="E19" t="n">
-        <v>8.4</v>
+        <v>15.236</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>363.5</v>
+        <v>286.14</v>
       </c>
       <c r="D20" t="n">
-        <v>432.54</v>
+        <v>350.94</v>
       </c>
       <c r="E20" t="n">
-        <v>4.616</v>
+        <v>10.556</v>
       </c>
     </row>
     <row r="21">
@@ -827,36 +827,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>177.16</v>
+        <v>350.94</v>
       </c>
       <c r="D21" t="n">
-        <v>220.66</v>
+        <v>436.48</v>
       </c>
       <c r="E21" t="n">
-        <v>16.444</v>
+        <v>7.592</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>82.7</v>
+        <v>57.6</v>
       </c>
       <c r="D22" t="n">
-        <v>144.44</v>
+        <v>108.12</v>
       </c>
       <c r="E22" t="n">
-        <v>19.356</v>
+        <v>23.008</v>
       </c>
     </row>
     <row r="23">
@@ -865,17 +865,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>83.09999999999999</v>
+        <v>108.12</v>
       </c>
       <c r="D23" t="n">
-        <v>158.18</v>
+        <v>177.06</v>
       </c>
       <c r="E23" t="n">
-        <v>21.992</v>
+        <v>19.224</v>
       </c>
     </row>
     <row r="24">
@@ -884,93 +884,93 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>220.66</v>
+        <v>436.48</v>
       </c>
       <c r="D24" t="n">
-        <v>297.54</v>
+        <v>497.2</v>
       </c>
       <c r="E24" t="n">
-        <v>12.356</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>297.54</v>
+        <v>185.82</v>
       </c>
       <c r="D25" t="n">
-        <v>368.3</v>
+        <v>235.12</v>
       </c>
       <c r="E25" t="n">
-        <v>8.42</v>
+        <v>16.028</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>158.18</v>
+        <v>187.24</v>
       </c>
       <c r="D26" t="n">
-        <v>234.66</v>
+        <v>246.98</v>
       </c>
       <c r="E26" t="n">
-        <v>17.944</v>
+        <v>11.372</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>226.92</v>
+        <v>497.2</v>
       </c>
       <c r="D27" t="n">
-        <v>291.82</v>
+        <v>528.24</v>
       </c>
       <c r="E27" t="n">
-        <v>11.328</v>
+        <v>1.176</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>226.42</v>
+        <v>528.24</v>
       </c>
       <c r="D28" t="n">
-        <v>276.84</v>
+        <v>597.89</v>
       </c>
       <c r="E28" t="n">
-        <v>11.516</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
@@ -979,17 +979,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>144.44</v>
+        <v>297.48</v>
       </c>
       <c r="D29" t="n">
-        <v>220.14</v>
+        <v>353.82</v>
       </c>
       <c r="E29" t="n">
-        <v>15.876</v>
+        <v>7.388</v>
       </c>
     </row>
     <row r="30">
@@ -998,17 +998,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>368.3</v>
+        <v>597.89</v>
       </c>
       <c r="D30" t="n">
-        <v>417.08</v>
+        <v>650.77</v>
       </c>
       <c r="E30" t="n">
-        <v>5.172</v>
+        <v>26.412</v>
       </c>
     </row>
     <row r="31">
@@ -1017,17 +1017,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>291.82</v>
+        <v>246.98</v>
       </c>
       <c r="D31" t="n">
-        <v>364.56</v>
+        <v>297.98</v>
       </c>
       <c r="E31" t="n">
-        <v>7.184</v>
+        <v>7.892</v>
       </c>
     </row>
     <row r="32">
@@ -1036,36 +1036,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>234.66</v>
+        <v>177.06</v>
       </c>
       <c r="D32" t="n">
-        <v>300.9</v>
+        <v>229.34</v>
       </c>
       <c r="E32" t="n">
-        <v>13.94</v>
+        <v>15.136</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>432.54</v>
+        <v>136.52</v>
       </c>
       <c r="D33" t="n">
-        <v>485.88</v>
+        <v>181.28</v>
       </c>
       <c r="E33" t="n">
-        <v>1.912</v>
+        <v>20.272</v>
       </c>
     </row>
     <row r="34">
@@ -1074,150 +1074,150 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>485.88</v>
+        <v>235.12</v>
       </c>
       <c r="D34" t="n">
-        <v>573.66</v>
+        <v>287.32</v>
       </c>
       <c r="E34" t="n">
-        <v>30</v>
+        <v>11.948</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>417.08</v>
+        <v>287.32</v>
       </c>
       <c r="D35" t="n">
-        <v>457.52</v>
+        <v>385.92</v>
       </c>
       <c r="E35" t="n">
-        <v>2.268</v>
+        <v>8.167999999999999</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>276.84</v>
+        <v>229.34</v>
       </c>
       <c r="D36" t="n">
-        <v>343.74</v>
+        <v>311.54</v>
       </c>
       <c r="E36" t="n">
-        <v>7.916</v>
+        <v>9.536</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>364.56</v>
+        <v>311.54</v>
       </c>
       <c r="D37" t="n">
-        <v>437.38</v>
+        <v>365.74</v>
       </c>
       <c r="E37" t="n">
-        <v>3.532</v>
+        <v>5.736</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>457.52</v>
+        <v>181.28</v>
       </c>
       <c r="D38" t="n">
-        <v>554.38</v>
+        <v>237.78</v>
       </c>
       <c r="E38" t="n">
-        <v>30</v>
+        <v>17.712</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>554.38</v>
+        <v>365.74</v>
       </c>
       <c r="D39" t="n">
-        <v>605.38</v>
+        <v>430.44</v>
       </c>
       <c r="E39" t="n">
-        <v>26.1</v>
+        <v>0.396</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>573.66</v>
+        <v>430.44</v>
       </c>
       <c r="D40" t="n">
-        <v>648.02</v>
+        <v>496.65</v>
       </c>
       <c r="E40" t="n">
-        <v>26.204</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>605.38</v>
+        <v>496.65</v>
       </c>
       <c r="D41" t="n">
-        <v>646.7</v>
+        <v>565.53</v>
       </c>
       <c r="E41" t="n">
-        <v>23.108</v>
+        <v>26.752</v>
       </c>
     </row>
     <row r="42">
@@ -1226,93 +1226,93 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>437.38</v>
+        <v>297.98</v>
       </c>
       <c r="D42" t="n">
-        <v>501.58</v>
+        <v>358.24</v>
       </c>
       <c r="E42" t="n">
-        <v>0.6919999999999999</v>
+        <v>3.976</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>501.58</v>
+        <v>353.82</v>
       </c>
       <c r="D43" t="n">
-        <v>611.5</v>
+        <v>415.42</v>
       </c>
       <c r="E43" t="n">
-        <v>30</v>
+        <v>3.368</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>300.9</v>
+        <v>358.24</v>
       </c>
       <c r="D44" t="n">
-        <v>374.9</v>
+        <v>409</v>
       </c>
       <c r="E44" t="n">
-        <v>10.14</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>374.9</v>
+        <v>409</v>
       </c>
       <c r="D45" t="n">
-        <v>459.1</v>
+        <v>495.52</v>
       </c>
       <c r="E45" t="n">
-        <v>6.3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>459.1</v>
+        <v>415.42</v>
       </c>
       <c r="D46" t="n">
-        <v>513.42</v>
+        <v>486.24</v>
       </c>
       <c r="E46" t="n">
-        <v>3.468</v>
+        <v>0.376</v>
       </c>
     </row>
     <row r="47">
@@ -1321,93 +1321,93 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>220.14</v>
+        <v>486.24</v>
       </c>
       <c r="D47" t="n">
-        <v>292.34</v>
+        <v>562.49</v>
       </c>
       <c r="E47" t="n">
-        <v>11.796</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>292.34</v>
+        <v>237.78</v>
       </c>
       <c r="D48" t="n">
-        <v>332.68</v>
+        <v>288.08</v>
       </c>
       <c r="E48" t="n">
-        <v>8.891999999999999</v>
+        <v>13.812</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>648.02</v>
+        <v>650.77</v>
       </c>
       <c r="D49" t="n">
-        <v>713.24</v>
+        <v>723.8099999999999</v>
       </c>
       <c r="E49" t="n">
-        <v>22.772</v>
+        <v>23.708</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>332.68</v>
+        <v>288.08</v>
       </c>
       <c r="D50" t="n">
-        <v>392.06</v>
+        <v>349.22</v>
       </c>
       <c r="E50" t="n">
-        <v>6.084</v>
+        <v>9.808</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>646.7</v>
+        <v>565.53</v>
       </c>
       <c r="D51" t="n">
-        <v>720.9</v>
+        <v>630.75</v>
       </c>
       <c r="E51" t="n">
-        <v>19.328</v>
+        <v>23.32</v>
       </c>
     </row>
     <row r="52">
@@ -1416,55 +1416,55 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>513.42</v>
+        <v>630.75</v>
       </c>
       <c r="D52" t="n">
-        <v>569.14</v>
+        <v>673.99</v>
       </c>
       <c r="E52" t="n">
-        <v>0.036</v>
+        <v>20.616</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>569.14</v>
+        <v>495.52</v>
       </c>
       <c r="D53" t="n">
-        <v>650.77</v>
+        <v>551.54</v>
       </c>
       <c r="E53" t="n">
-        <v>30</v>
+        <v>26.568</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>343.74</v>
+        <v>562.49</v>
       </c>
       <c r="D54" t="n">
-        <v>415.14</v>
+        <v>618.59</v>
       </c>
       <c r="E54" t="n">
-        <v>5.356</v>
+        <v>26.08</v>
       </c>
     </row>
     <row r="55">
@@ -1473,36 +1473,36 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>415.14</v>
+        <v>349.22</v>
       </c>
       <c r="D55" t="n">
-        <v>486.84</v>
+        <v>392.62</v>
       </c>
       <c r="E55" t="n">
-        <v>1.276</v>
+        <v>7.088</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>486.84</v>
+        <v>385.92</v>
       </c>
       <c r="D56" t="n">
-        <v>585.6900000000001</v>
+        <v>473.56</v>
       </c>
       <c r="E56" t="n">
-        <v>30</v>
+        <v>4.024</v>
       </c>
     </row>
     <row r="57">
@@ -1511,283 +1511,264 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>713.24</v>
+        <v>473.56</v>
       </c>
       <c r="D57" t="n">
-        <v>759.1799999999999</v>
+        <v>559.02</v>
       </c>
       <c r="E57" t="n">
-        <v>19.808</v>
+        <v>0.08799999999999999</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>392.06</v>
+        <v>559.02</v>
       </c>
       <c r="D58" t="n">
-        <v>457.32</v>
+        <v>655.34</v>
       </c>
       <c r="E58" t="n">
-        <v>2.168</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>457.32</v>
+        <v>723.8099999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>549.58</v>
+        <v>787.99</v>
       </c>
       <c r="E59" t="n">
-        <v>30</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>549.58</v>
+        <v>655.34</v>
       </c>
       <c r="D60" t="n">
-        <v>624.72</v>
+        <v>720.84</v>
       </c>
       <c r="E60" t="n">
-        <v>26.136</v>
+        <v>25.62</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>585.6900000000001</v>
+        <v>673.99</v>
       </c>
       <c r="D61" t="n">
-        <v>655.09</v>
+        <v>733.17</v>
       </c>
       <c r="E61" t="n">
-        <v>26.7</v>
+        <v>17.808</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>624.72</v>
+        <v>551.54</v>
       </c>
       <c r="D62" t="n">
-        <v>688.7</v>
+        <v>611.9400000000001</v>
       </c>
       <c r="E62" t="n">
-        <v>23.328</v>
+        <v>22.148</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>759.1799999999999</v>
+        <v>618.59</v>
       </c>
       <c r="D63" t="n">
-        <v>807.58</v>
+        <v>663.11</v>
       </c>
       <c r="E63" t="n">
-        <v>15.608</v>
+        <v>23.248</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>611.5</v>
+        <v>663.11</v>
       </c>
       <c r="D64" t="n">
-        <v>680.4</v>
+        <v>729.9299999999999</v>
       </c>
       <c r="E64" t="n">
-        <v>25.8</v>
+        <v>19.696</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>720.9</v>
+        <v>611.9400000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>796.4</v>
+        <v>699.9400000000001</v>
       </c>
       <c r="E65" t="n">
-        <v>15.408</v>
+        <v>17.948</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>688.7</v>
+        <v>699.9400000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>761.1799999999999</v>
+        <v>759.8200000000001</v>
       </c>
       <c r="E66" t="n">
-        <v>18.68</v>
+        <v>13.58</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>650.77</v>
+        <v>729.9299999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>703.65</v>
+        <v>780.17</v>
       </c>
       <c r="E67" t="n">
-        <v>26.412</v>
+        <v>16.792</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>761.1799999999999</v>
+        <v>392.62</v>
       </c>
       <c r="D68" t="n">
-        <v>812.6799999999999</v>
+        <v>445.54</v>
       </c>
       <c r="E68" t="n">
-        <v>14.66</v>
+        <v>3.436</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>655.09</v>
+        <v>733.17</v>
       </c>
       <c r="D69" t="n">
-        <v>701.99</v>
+        <v>808.01</v>
       </c>
       <c r="E69" t="n">
-        <v>23.14</v>
+        <v>14.904</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>680.4</v>
+        <v>720.84</v>
       </c>
       <c r="D70" t="n">
-        <v>744.86</v>
+        <v>780.12</v>
       </c>
       <c r="E70" t="n">
-        <v>22.944</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>3</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>pond58</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>812.6799999999999</v>
-      </c>
-      <c r="D71" t="n">
-        <v>864.22</v>
-      </c>
-      <c r="E71" t="n">
-        <v>11.636</v>
+        <v>21.812</v>
       </c>
     </row>
   </sheetData>
